--- a/vagonweb/Ratios.xlsx
+++ b/vagonweb/Ratios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciek/Documents/Dokumenty — MacBook Pro (Maciej)/Wirtschaftsuniversitat Wien/Year 5/DOA/Data-Analysis-and-Optimisation/vagonweb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C57E2B4-F99E-0E43-8CB6-3FDDAD2E6A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6318261-7C53-2046-8EFE-075C9248BEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26920" yWindow="1240" windowWidth="26440" windowHeight="15440" xr2:uid="{84EB25AC-EB47-2444-AE9B-18CCEA9E9AA1}"/>
+    <workbookView xWindow="1720" yWindow="1300" windowWidth="26440" windowHeight="15440" xr2:uid="{84EB25AC-EB47-2444-AE9B-18CCEA9E9AA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,22 +61,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Ratio</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>arrival</t>
+  </si>
+  <si>
+    <t>arrival_set</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>change count</t>
+  </si>
+  <si>
+    <t>average change duration</t>
+  </si>
+  <si>
+    <t>total change duration</t>
+  </si>
+  <si>
+    <t>cctv</t>
+  </si>
+  <si>
+    <t>Wheelchair</t>
+  </si>
+  <si>
+    <t>Bicycle</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>LowFloor</t>
+  </si>
+  <si>
+    <t>at:43:4801</t>
+  </si>
+  <si>
+    <t>at:49:1091</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,8 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,7 +283,7 @@
             <v>0</v>
           </cell>
           <cell r="F7" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G7" t="b">
             <v>0</v>
@@ -446,13 +504,13 @@
             <v>0</v>
           </cell>
           <cell r="F20" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G20" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H20" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I20" t="b">
             <v>0</v>
@@ -582,7 +640,7 @@
             <v>0</v>
           </cell>
           <cell r="F28" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G28" t="b">
             <v>0</v>
@@ -667,7 +725,7 @@
             <v>0</v>
           </cell>
           <cell r="F33" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G33" t="b">
             <v>0</v>
@@ -1092,7 +1150,7 @@
             <v>0</v>
           </cell>
           <cell r="F58" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G58" t="b">
             <v>0</v>
@@ -1211,7 +1269,7 @@
             <v>0</v>
           </cell>
           <cell r="F65" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G65" t="b">
             <v>1</v>
@@ -1279,7 +1337,7 @@
             <v>0</v>
           </cell>
           <cell r="F69" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G69" t="b">
             <v>1</v>
@@ -1330,7 +1388,7 @@
             <v>0</v>
           </cell>
           <cell r="F73" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G73" t="b">
             <v>1</v>
@@ -1347,7 +1405,7 @@
             <v>0</v>
           </cell>
           <cell r="F74" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G74" t="b">
             <v>1</v>
@@ -1364,7 +1422,7 @@
             <v>0</v>
           </cell>
           <cell r="F75" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G75" t="b">
             <v>1</v>
@@ -1381,7 +1439,7 @@
             <v>0</v>
           </cell>
           <cell r="F76" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G76" t="b">
             <v>1</v>
@@ -1398,7 +1456,7 @@
             <v>0</v>
           </cell>
           <cell r="F77" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G77" t="b">
             <v>1</v>
@@ -1415,7 +1473,7 @@
             <v>0</v>
           </cell>
           <cell r="F78" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G78" t="b">
             <v>1</v>
@@ -1449,7 +1507,7 @@
             <v>0</v>
           </cell>
           <cell r="F80" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G80" t="b">
             <v>1</v>
@@ -1466,7 +1524,7 @@
             <v>0</v>
           </cell>
           <cell r="F81" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G81" t="b">
             <v>1</v>
@@ -1483,7 +1541,7 @@
             <v>0</v>
           </cell>
           <cell r="F82" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G82" t="b">
             <v>1</v>
@@ -1500,7 +1558,7 @@
             <v>0</v>
           </cell>
           <cell r="F83" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G83" t="b">
             <v>1</v>
@@ -1517,7 +1575,7 @@
             <v>0</v>
           </cell>
           <cell r="F84" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G84" t="b">
             <v>1</v>
@@ -1534,7 +1592,7 @@
             <v>0</v>
           </cell>
           <cell r="F85" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G85" t="b">
             <v>1</v>
@@ -1551,7 +1609,7 @@
             <v>0</v>
           </cell>
           <cell r="F86" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G86" t="b">
             <v>1</v>
@@ -1568,7 +1626,7 @@
             <v>0</v>
           </cell>
           <cell r="F87" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G87" t="b">
             <v>1</v>
@@ -1585,7 +1643,7 @@
             <v>0</v>
           </cell>
           <cell r="F88" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G88" t="b">
             <v>1</v>
@@ -1602,7 +1660,7 @@
             <v>0</v>
           </cell>
           <cell r="F89" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G89" t="b">
             <v>1</v>
@@ -1619,7 +1677,7 @@
             <v>0</v>
           </cell>
           <cell r="F90" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G90" t="b">
             <v>1</v>
@@ -1653,7 +1711,7 @@
             <v>0</v>
           </cell>
           <cell r="F92" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G92" t="b">
             <v>1</v>
@@ -1687,7 +1745,7 @@
             <v>0</v>
           </cell>
           <cell r="F94" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G94" t="b">
             <v>1</v>
@@ -1704,7 +1762,7 @@
             <v>0</v>
           </cell>
           <cell r="F95" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G95" t="b">
             <v>1</v>
@@ -1721,7 +1779,7 @@
             <v>0</v>
           </cell>
           <cell r="F96" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G96" t="b">
             <v>1</v>
@@ -1806,7 +1864,7 @@
             <v>0</v>
           </cell>
           <cell r="F101" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G101" t="b">
             <v>1</v>
@@ -1823,7 +1881,7 @@
             <v>0</v>
           </cell>
           <cell r="F102" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G102" t="b">
             <v>1</v>
@@ -1942,7 +2000,7 @@
             <v>0</v>
           </cell>
           <cell r="F109" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G109" t="b">
             <v>1</v>
@@ -2163,7 +2221,7 @@
             <v>0</v>
           </cell>
           <cell r="F122" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G122" t="b">
             <v>1</v>
@@ -2197,7 +2255,7 @@
             <v>0</v>
           </cell>
           <cell r="F124" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G124" t="b">
             <v>1</v>
@@ -2231,7 +2289,7 @@
             <v>0</v>
           </cell>
           <cell r="F126" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G126" t="b">
             <v>1</v>
@@ -2248,7 +2306,7 @@
             <v>0</v>
           </cell>
           <cell r="F127" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G127" t="b">
             <v>1</v>
@@ -2265,7 +2323,7 @@
             <v>0</v>
           </cell>
           <cell r="F128" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G128" t="b">
             <v>1</v>
@@ -2282,7 +2340,7 @@
             <v>0</v>
           </cell>
           <cell r="F129" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G129" t="b">
             <v>1</v>
@@ -2316,7 +2374,7 @@
             <v>0</v>
           </cell>
           <cell r="F131" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G131" t="b">
             <v>1</v>
@@ -2350,7 +2408,7 @@
             <v>0</v>
           </cell>
           <cell r="F133" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G133" t="b">
             <v>1</v>
@@ -2384,7 +2442,7 @@
             <v>0</v>
           </cell>
           <cell r="F135" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G135" t="b">
             <v>1</v>
@@ -2435,7 +2493,7 @@
             <v>0</v>
           </cell>
           <cell r="F138" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G138" t="b">
             <v>1</v>
@@ -2452,7 +2510,7 @@
             <v>0</v>
           </cell>
           <cell r="F139" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G139" t="b">
             <v>1</v>
@@ -2469,7 +2527,7 @@
             <v>0</v>
           </cell>
           <cell r="F140" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G140" t="b">
             <v>1</v>
@@ -2503,7 +2561,7 @@
             <v>0</v>
           </cell>
           <cell r="F142" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G142" t="b">
             <v>1</v>
@@ -2554,7 +2612,7 @@
             <v>0</v>
           </cell>
           <cell r="F145" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G145" t="b">
             <v>1</v>
@@ -2571,7 +2629,7 @@
             <v>0</v>
           </cell>
           <cell r="F146" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G146" t="b">
             <v>1</v>
@@ -2588,7 +2646,7 @@
             <v>0</v>
           </cell>
           <cell r="F147" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G147" t="b">
             <v>1</v>
@@ -2622,7 +2680,7 @@
             <v>0</v>
           </cell>
           <cell r="F149" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G149" t="b">
             <v>1</v>
@@ -2690,7 +2748,7 @@
             <v>0</v>
           </cell>
           <cell r="F153" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G153" t="b">
             <v>1</v>
@@ -2724,7 +2782,7 @@
             <v>0</v>
           </cell>
           <cell r="F155" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G155" t="b">
             <v>1</v>
@@ -3472,7 +3530,7 @@
             <v>0</v>
           </cell>
           <cell r="F213" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G213" t="b">
             <v>1</v>
@@ -4135,7 +4193,7 @@
             <v>0</v>
           </cell>
           <cell r="F273" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G273" t="b">
             <v>1</v>
@@ -4407,7 +4465,7 @@
             <v>0</v>
           </cell>
           <cell r="F419" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G419" t="b">
             <v>1</v>
@@ -4730,7 +4788,7 @@
             <v>0</v>
           </cell>
           <cell r="F666" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G666" t="b">
             <v>1</v>
@@ -4832,7 +4890,7 @@
             <v>0</v>
           </cell>
           <cell r="F673" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G673" t="b">
             <v>1</v>
@@ -4866,7 +4924,7 @@
             <v>0</v>
           </cell>
           <cell r="F675" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G675" t="b">
             <v>1</v>
@@ -4883,7 +4941,7 @@
             <v>0</v>
           </cell>
           <cell r="F676" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G676" t="b">
             <v>1</v>
@@ -4900,7 +4958,7 @@
             <v>0</v>
           </cell>
           <cell r="F677" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G677" t="b">
             <v>1</v>
@@ -4951,7 +5009,7 @@
             <v>0</v>
           </cell>
           <cell r="F680" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G680" t="b">
             <v>1</v>
@@ -5019,7 +5077,7 @@
             <v>0</v>
           </cell>
           <cell r="F684" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G684" t="b">
             <v>1</v>
@@ -5087,7 +5145,7 @@
             <v>0</v>
           </cell>
           <cell r="F688" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G688" t="b">
             <v>1</v>
@@ -5172,7 +5230,7 @@
             <v>0</v>
           </cell>
           <cell r="F693" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G693" t="b">
             <v>1</v>
@@ -5240,7 +5298,7 @@
             <v>0</v>
           </cell>
           <cell r="F697" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G697" t="b">
             <v>1</v>
@@ -5274,7 +5332,7 @@
             <v>0</v>
           </cell>
           <cell r="F699" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G699" t="b">
             <v>1</v>
@@ -5342,7 +5400,7 @@
             <v>0</v>
           </cell>
           <cell r="F703" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G703" t="b">
             <v>1</v>
@@ -5410,7 +5468,7 @@
             <v>0</v>
           </cell>
           <cell r="F707" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G707" t="b">
             <v>1</v>
@@ -5444,7 +5502,7 @@
             <v>0</v>
           </cell>
           <cell r="F709" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G709" t="b">
             <v>1</v>
@@ -5546,7 +5604,7 @@
             <v>0</v>
           </cell>
           <cell r="F715" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G715" t="b">
             <v>1</v>
@@ -5563,7 +5621,7 @@
             <v>0</v>
           </cell>
           <cell r="F716" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G716" t="b">
             <v>1</v>
@@ -5580,7 +5638,7 @@
             <v>0</v>
           </cell>
           <cell r="F717" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G717" t="b">
             <v>1</v>
@@ -5614,7 +5672,7 @@
             <v>0</v>
           </cell>
           <cell r="F719" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G719" t="b">
             <v>1</v>
@@ -5716,7 +5774,7 @@
             <v>0</v>
           </cell>
           <cell r="F801" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G801" t="b">
             <v>1</v>
@@ -5750,7 +5808,7 @@
             <v>0</v>
           </cell>
           <cell r="F803" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G803" t="b">
             <v>1</v>
@@ -5801,7 +5859,7 @@
             <v>0</v>
           </cell>
           <cell r="F809" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G809" t="b">
             <v>1</v>
@@ -5852,7 +5910,7 @@
             <v>0</v>
           </cell>
           <cell r="F812" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G812" t="b">
             <v>1</v>
@@ -5869,7 +5927,7 @@
             <v>0</v>
           </cell>
           <cell r="F814" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G814" t="b">
             <v>1</v>
@@ -5954,7 +6012,7 @@
             <v>0</v>
           </cell>
           <cell r="F821" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G821" t="b">
             <v>1</v>
@@ -6039,7 +6097,7 @@
             <v>0</v>
           </cell>
           <cell r="F826" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G826" t="b">
             <v>1</v>
@@ -6056,7 +6114,7 @@
             <v>0</v>
           </cell>
           <cell r="F827" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G827" t="b">
             <v>1</v>
@@ -6124,7 +6182,7 @@
             <v>0</v>
           </cell>
           <cell r="F832" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G832" t="b">
             <v>1</v>
@@ -6260,7 +6318,7 @@
             <v>0</v>
           </cell>
           <cell r="F841" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G841" t="b">
             <v>1</v>
@@ -6294,7 +6352,7 @@
             <v>0</v>
           </cell>
           <cell r="F844" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G844" t="b">
             <v>1</v>
@@ -6821,7 +6879,7 @@
             <v>0</v>
           </cell>
           <cell r="F883" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G883" t="b">
             <v>1</v>
@@ -6872,7 +6930,7 @@
             <v>0</v>
           </cell>
           <cell r="F912" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G912" t="b">
             <v>1</v>
@@ -6974,7 +7032,7 @@
             <v>0</v>
           </cell>
           <cell r="F918" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G918" t="b">
             <v>1</v>
@@ -6991,7 +7049,7 @@
             <v>0</v>
           </cell>
           <cell r="F919" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G919" t="b">
             <v>1</v>
@@ -7008,7 +7066,7 @@
             <v>0</v>
           </cell>
           <cell r="F920" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G920" t="b">
             <v>1</v>
@@ -7025,7 +7083,7 @@
             <v>0</v>
           </cell>
           <cell r="F921" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G921" t="b">
             <v>1</v>
@@ -7059,7 +7117,7 @@
             <v>0</v>
           </cell>
           <cell r="F923" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G923" t="b">
             <v>1</v>
@@ -7076,7 +7134,7 @@
             <v>0</v>
           </cell>
           <cell r="F924" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G924" t="b">
             <v>1</v>
@@ -7127,7 +7185,7 @@
             <v>0</v>
           </cell>
           <cell r="F927" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G927" t="b">
             <v>1</v>
@@ -7144,7 +7202,7 @@
             <v>0</v>
           </cell>
           <cell r="F928" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G928" t="b">
             <v>1</v>
@@ -7161,7 +7219,7 @@
             <v>0</v>
           </cell>
           <cell r="F929" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G929" t="b">
             <v>1</v>
@@ -7178,7 +7236,7 @@
             <v>0</v>
           </cell>
           <cell r="F930" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G930" t="b">
             <v>1</v>
@@ -7212,7 +7270,7 @@
             <v>0</v>
           </cell>
           <cell r="F932" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G932" t="b">
             <v>1</v>
@@ -7229,7 +7287,7 @@
             <v>0</v>
           </cell>
           <cell r="F934" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G934" t="b">
             <v>1</v>
@@ -7246,7 +7304,7 @@
             <v>0</v>
           </cell>
           <cell r="F935" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G935" t="b">
             <v>1</v>
@@ -7263,7 +7321,7 @@
             <v>0</v>
           </cell>
           <cell r="F936" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G936" t="b">
             <v>1</v>
@@ -7280,7 +7338,7 @@
             <v>0</v>
           </cell>
           <cell r="F937" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G937" t="b">
             <v>1</v>
@@ -7297,7 +7355,7 @@
             <v>0</v>
           </cell>
           <cell r="F938" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G938" t="b">
             <v>1</v>
@@ -7314,7 +7372,7 @@
             <v>0</v>
           </cell>
           <cell r="F939" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G939" t="b">
             <v>1</v>
@@ -7331,7 +7389,7 @@
             <v>0</v>
           </cell>
           <cell r="F940" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G940" t="b">
             <v>1</v>
@@ -7348,7 +7406,7 @@
             <v>0</v>
           </cell>
           <cell r="F941" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G941" t="b">
             <v>1</v>
@@ -7365,7 +7423,7 @@
             <v>0</v>
           </cell>
           <cell r="F942" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G942" t="b">
             <v>1</v>
@@ -7382,7 +7440,7 @@
             <v>0</v>
           </cell>
           <cell r="F943" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G943" t="b">
             <v>1</v>
@@ -7416,7 +7474,7 @@
             <v>0</v>
           </cell>
           <cell r="F945" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G945" t="b">
             <v>1</v>
@@ -7552,7 +7610,7 @@
             <v>0</v>
           </cell>
           <cell r="F954" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G954" t="b">
             <v>1</v>
@@ -7603,7 +7661,7 @@
             <v>0</v>
           </cell>
           <cell r="F958" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G958" t="b">
             <v>1</v>
@@ -7637,7 +7695,7 @@
             <v>0</v>
           </cell>
           <cell r="F960" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G960" t="b">
             <v>1</v>
@@ -7688,7 +7746,7 @@
             <v>0</v>
           </cell>
           <cell r="F963" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G963" t="b">
             <v>1</v>
@@ -7705,7 +7763,7 @@
             <v>0</v>
           </cell>
           <cell r="F964" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G964" t="b">
             <v>1</v>
@@ -7739,7 +7797,7 @@
             <v>0</v>
           </cell>
           <cell r="F968" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G968" t="b">
             <v>1</v>
@@ -7773,7 +7831,7 @@
             <v>0</v>
           </cell>
           <cell r="F971" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G971" t="b">
             <v>1</v>
@@ -7790,7 +7848,7 @@
             <v>0</v>
           </cell>
           <cell r="F974" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G974" t="b">
             <v>1</v>
@@ -7807,7 +7865,7 @@
             <v>0</v>
           </cell>
           <cell r="F979" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G979" t="b">
             <v>1</v>
@@ -7824,7 +7882,7 @@
             <v>0</v>
           </cell>
           <cell r="F980" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G980" t="b">
             <v>1</v>
@@ -7841,7 +7899,7 @@
             <v>0</v>
           </cell>
           <cell r="F1025" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1025" t="b">
             <v>1</v>
@@ -7858,7 +7916,7 @@
             <v>0</v>
           </cell>
           <cell r="F1026" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1026" t="b">
             <v>1</v>
@@ -7875,7 +7933,7 @@
             <v>0</v>
           </cell>
           <cell r="F1027" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1027" t="b">
             <v>1</v>
@@ -7926,7 +7984,7 @@
             <v>0</v>
           </cell>
           <cell r="F1031" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1031" t="b">
             <v>1</v>
@@ -7943,7 +8001,7 @@
             <v>0</v>
           </cell>
           <cell r="F1032" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1032" t="b">
             <v>1</v>
@@ -7977,7 +8035,7 @@
             <v>0</v>
           </cell>
           <cell r="F1034" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1034" t="b">
             <v>1</v>
@@ -8011,7 +8069,7 @@
             <v>0</v>
           </cell>
           <cell r="F1036" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1036" t="b">
             <v>1</v>
@@ -8062,7 +8120,7 @@
             <v>0</v>
           </cell>
           <cell r="F1039" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1039" t="b">
             <v>1</v>
@@ -8147,7 +8205,7 @@
             <v>0</v>
           </cell>
           <cell r="F1045" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1045" t="b">
             <v>1</v>
@@ -8164,7 +8222,7 @@
             <v>0</v>
           </cell>
           <cell r="F1046" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1046" t="b">
             <v>1</v>
@@ -8198,7 +8256,7 @@
             <v>0</v>
           </cell>
           <cell r="F1048" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1048" t="b">
             <v>1</v>
@@ -8215,7 +8273,7 @@
             <v>0</v>
           </cell>
           <cell r="F1049" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1049" t="b">
             <v>1</v>
@@ -8249,7 +8307,7 @@
             <v>0</v>
           </cell>
           <cell r="F1051" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1051" t="b">
             <v>1</v>
@@ -8266,7 +8324,7 @@
             <v>0</v>
           </cell>
           <cell r="F1053" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1053" t="b">
             <v>1</v>
@@ -8283,7 +8341,7 @@
             <v>0</v>
           </cell>
           <cell r="F1054" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1054" t="b">
             <v>1</v>
@@ -8300,7 +8358,7 @@
             <v>0</v>
           </cell>
           <cell r="F1055" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1055" t="b">
             <v>1</v>
@@ -8317,7 +8375,7 @@
             <v>0</v>
           </cell>
           <cell r="F1056" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1056" t="b">
             <v>1</v>
@@ -8368,7 +8426,7 @@
             <v>0</v>
           </cell>
           <cell r="F1059" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1059" t="b">
             <v>1</v>
@@ -8385,7 +8443,7 @@
             <v>0</v>
           </cell>
           <cell r="F1060" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1060" t="b">
             <v>1</v>
@@ -8402,7 +8460,7 @@
             <v>0</v>
           </cell>
           <cell r="F1061" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1061" t="b">
             <v>1</v>
@@ -8436,7 +8494,7 @@
             <v>0</v>
           </cell>
           <cell r="F1064" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1064" t="b">
             <v>1</v>
@@ -8453,7 +8511,7 @@
             <v>0</v>
           </cell>
           <cell r="F1065" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1065" t="b">
             <v>1</v>
@@ -8470,7 +8528,7 @@
             <v>0</v>
           </cell>
           <cell r="F1066" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1066" t="b">
             <v>1</v>
@@ -8487,7 +8545,7 @@
             <v>0</v>
           </cell>
           <cell r="F1067" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1067" t="b">
             <v>1</v>
@@ -8521,7 +8579,7 @@
             <v>0</v>
           </cell>
           <cell r="F1069" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1069" t="b">
             <v>1</v>
@@ -8538,7 +8596,7 @@
             <v>0</v>
           </cell>
           <cell r="F1071" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1071" t="b">
             <v>1</v>
@@ -8555,7 +8613,7 @@
             <v>0</v>
           </cell>
           <cell r="F1072" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1072" t="b">
             <v>1</v>
@@ -8572,7 +8630,7 @@
             <v>0</v>
           </cell>
           <cell r="F1073" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1073" t="b">
             <v>1</v>
@@ -8589,7 +8647,7 @@
             <v>0</v>
           </cell>
           <cell r="F1077" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1077" t="b">
             <v>1</v>
@@ -8606,7 +8664,7 @@
             <v>0</v>
           </cell>
           <cell r="F1078" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1078" t="b">
             <v>1</v>
@@ -8623,7 +8681,7 @@
             <v>0</v>
           </cell>
           <cell r="F1100" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1100" t="b">
             <v>1</v>
@@ -8640,7 +8698,7 @@
             <v>0</v>
           </cell>
           <cell r="F1101" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1101" t="b">
             <v>1</v>
@@ -13162,7 +13220,7 @@
             <v>0</v>
           </cell>
           <cell r="F1370" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1370" t="b">
             <v>1</v>
@@ -13179,7 +13237,7 @@
             <v>0</v>
           </cell>
           <cell r="F1378" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1378" t="b">
             <v>1</v>
@@ -13196,7 +13254,7 @@
             <v>0</v>
           </cell>
           <cell r="F1381" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1381" t="b">
             <v>1</v>
@@ -13264,7 +13322,7 @@
             <v>0</v>
           </cell>
           <cell r="F1392" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1392" t="b">
             <v>1</v>
@@ -13281,7 +13339,7 @@
             <v>0</v>
           </cell>
           <cell r="F1393" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1393" t="b">
             <v>1</v>
@@ -13298,7 +13356,7 @@
             <v>0</v>
           </cell>
           <cell r="F1397" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1397" t="b">
             <v>1</v>
@@ -13332,7 +13390,7 @@
             <v>0</v>
           </cell>
           <cell r="F1405" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1405" t="b">
             <v>1</v>
@@ -19214,7 +19272,7 @@
             <v>0</v>
           </cell>
           <cell r="F1855" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1855" t="b">
             <v>1</v>
@@ -19605,7 +19663,7 @@
             <v>0</v>
           </cell>
           <cell r="F1885" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1885" t="b">
             <v>0</v>
@@ -19843,7 +19901,7 @@
             <v>0</v>
           </cell>
           <cell r="F1906" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1906" t="b">
             <v>1</v>
@@ -19860,13 +19918,13 @@
             <v>0</v>
           </cell>
           <cell r="F1907" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1907" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H1907" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I1907" t="b">
             <v>0</v>
@@ -19894,13 +19952,13 @@
             <v>0</v>
           </cell>
           <cell r="F1910" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1910" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H1910" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I1910" t="b">
             <v>0</v>
@@ -19928,7 +19986,7 @@
             <v>0</v>
           </cell>
           <cell r="F1914" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1914" t="b">
             <v>1</v>
@@ -19962,7 +20020,7 @@
             <v>0</v>
           </cell>
           <cell r="F1917" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1917" t="b">
             <v>1</v>
@@ -19979,7 +20037,7 @@
             <v>0</v>
           </cell>
           <cell r="F1918" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1918" t="b">
             <v>1</v>
@@ -20013,7 +20071,7 @@
             <v>0</v>
           </cell>
           <cell r="F1925" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1925" t="b">
             <v>1</v>
@@ -20030,7 +20088,7 @@
             <v>0</v>
           </cell>
           <cell r="F1930" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1930" t="b">
             <v>1</v>
@@ -20047,7 +20105,7 @@
             <v>0</v>
           </cell>
           <cell r="F1931" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1931" t="b">
             <v>1</v>
@@ -20064,7 +20122,7 @@
             <v>0</v>
           </cell>
           <cell r="F1932" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1932" t="b">
             <v>1</v>
@@ -20081,7 +20139,7 @@
             <v>0</v>
           </cell>
           <cell r="F1933" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1933" t="b">
             <v>1</v>
@@ -20098,7 +20156,7 @@
             <v>0</v>
           </cell>
           <cell r="F1934" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1934" t="b">
             <v>1</v>
@@ -20115,7 +20173,7 @@
             <v>0</v>
           </cell>
           <cell r="F1935" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1935" t="b">
             <v>1</v>
@@ -20132,7 +20190,7 @@
             <v>0</v>
           </cell>
           <cell r="F1936" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1936" t="b">
             <v>1</v>
@@ -20183,7 +20241,7 @@
             <v>0</v>
           </cell>
           <cell r="F1947" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1947" t="b">
             <v>1</v>
@@ -20200,7 +20258,7 @@
             <v>0</v>
           </cell>
           <cell r="F1948" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1948" t="b">
             <v>1</v>
@@ -20217,7 +20275,7 @@
             <v>0</v>
           </cell>
           <cell r="F1949" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1949" t="b">
             <v>1</v>
@@ -20234,7 +20292,7 @@
             <v>0</v>
           </cell>
           <cell r="F1950" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1950" t="b">
             <v>1</v>
@@ -20251,13 +20309,13 @@
             <v>0</v>
           </cell>
           <cell r="F1953" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1953" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H1953" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I1953" t="b">
             <v>0</v>
@@ -20285,13 +20343,13 @@
             <v>0</v>
           </cell>
           <cell r="F1955" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1955" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H1955" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I1955" t="b">
             <v>0</v>
@@ -20302,13 +20360,13 @@
             <v>0</v>
           </cell>
           <cell r="F1956" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1956" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H1956" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I1956" t="b">
             <v>0</v>
@@ -20353,13 +20411,13 @@
             <v>0</v>
           </cell>
           <cell r="F1959" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1959" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H1959" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I1959" t="b">
             <v>0</v>
@@ -20370,7 +20428,7 @@
             <v>0</v>
           </cell>
           <cell r="F1960" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1960" t="b">
             <v>1</v>
@@ -20387,13 +20445,13 @@
             <v>0</v>
           </cell>
           <cell r="F1961" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1961" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H1961" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I1961" t="b">
             <v>0</v>
@@ -20404,13 +20462,13 @@
             <v>0</v>
           </cell>
           <cell r="F1962" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1962" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H1962" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I1962" t="b">
             <v>0</v>
@@ -20421,7 +20479,7 @@
             <v>0</v>
           </cell>
           <cell r="F1963" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1963" t="b">
             <v>1</v>
@@ -20438,7 +20496,7 @@
             <v>0</v>
           </cell>
           <cell r="F1968" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1968" t="b">
             <v>1</v>
@@ -20455,7 +20513,7 @@
             <v>0</v>
           </cell>
           <cell r="F1975" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1975" t="b">
             <v>1</v>
@@ -20472,7 +20530,7 @@
             <v>0</v>
           </cell>
           <cell r="F1976" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1976" t="b">
             <v>1</v>
@@ -20659,7 +20717,7 @@
             <v>0</v>
           </cell>
           <cell r="F1987" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1987" t="b">
             <v>1</v>
@@ -20761,7 +20819,7 @@
             <v>0</v>
           </cell>
           <cell r="F1993" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1993" t="b">
             <v>1</v>
@@ -20812,7 +20870,7 @@
             <v>0</v>
           </cell>
           <cell r="F1996" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1996" t="b">
             <v>1</v>
@@ -20829,7 +20887,7 @@
             <v>0</v>
           </cell>
           <cell r="F1997" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1997" t="b">
             <v>1</v>
@@ -20846,7 +20904,7 @@
             <v>0</v>
           </cell>
           <cell r="F1998" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1998" t="b">
             <v>1</v>
@@ -20863,7 +20921,7 @@
             <v>0</v>
           </cell>
           <cell r="F1999" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G1999" t="b">
             <v>1</v>
@@ -20880,7 +20938,7 @@
             <v>0</v>
           </cell>
           <cell r="F2000" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2000" t="b">
             <v>1</v>
@@ -20914,7 +20972,7 @@
             <v>0</v>
           </cell>
           <cell r="F2002" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2002" t="b">
             <v>1</v>
@@ -20931,7 +20989,7 @@
             <v>0</v>
           </cell>
           <cell r="F2003" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2003" t="b">
             <v>1</v>
@@ -20948,7 +21006,7 @@
             <v>0</v>
           </cell>
           <cell r="F2004" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2004" t="b">
             <v>1</v>
@@ -20965,7 +21023,7 @@
             <v>0</v>
           </cell>
           <cell r="F2005" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2005" t="b">
             <v>1</v>
@@ -21016,7 +21074,7 @@
             <v>0</v>
           </cell>
           <cell r="F2008" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2008" t="b">
             <v>1</v>
@@ -21033,7 +21091,7 @@
             <v>0</v>
           </cell>
           <cell r="F2009" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2009" t="b">
             <v>1</v>
@@ -21067,7 +21125,7 @@
             <v>0</v>
           </cell>
           <cell r="F2011" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2011" t="b">
             <v>1</v>
@@ -21084,7 +21142,7 @@
             <v>0</v>
           </cell>
           <cell r="F2012" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2012" t="b">
             <v>1</v>
@@ -21101,7 +21159,7 @@
             <v>0</v>
           </cell>
           <cell r="F2013" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2013" t="b">
             <v>1</v>
@@ -21135,7 +21193,7 @@
             <v>0</v>
           </cell>
           <cell r="F2015" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2015" t="b">
             <v>1</v>
@@ -21152,7 +21210,7 @@
             <v>0</v>
           </cell>
           <cell r="F2016" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2016" t="b">
             <v>1</v>
@@ -21169,7 +21227,7 @@
             <v>0</v>
           </cell>
           <cell r="F2017" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2017" t="b">
             <v>1</v>
@@ -21186,7 +21244,7 @@
             <v>0</v>
           </cell>
           <cell r="F2018" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2018" t="b">
             <v>1</v>
@@ -21203,7 +21261,7 @@
             <v>0</v>
           </cell>
           <cell r="F2019" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2019" t="b">
             <v>1</v>
@@ -21220,7 +21278,7 @@
             <v>0</v>
           </cell>
           <cell r="F2020" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2020" t="b">
             <v>1</v>
@@ -21237,7 +21295,7 @@
             <v>0</v>
           </cell>
           <cell r="F2021" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2021" t="b">
             <v>1</v>
@@ -21271,7 +21329,7 @@
             <v>0</v>
           </cell>
           <cell r="F2023" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2023" t="b">
             <v>1</v>
@@ -21288,7 +21346,7 @@
             <v>0</v>
           </cell>
           <cell r="F2024" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2024" t="b">
             <v>1</v>
@@ -21305,7 +21363,7 @@
             <v>0</v>
           </cell>
           <cell r="F2025" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2025" t="b">
             <v>1</v>
@@ -21322,7 +21380,7 @@
             <v>0</v>
           </cell>
           <cell r="F2026" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2026" t="b">
             <v>1</v>
@@ -21339,7 +21397,7 @@
             <v>0</v>
           </cell>
           <cell r="F2027" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2027" t="b">
             <v>1</v>
@@ -21356,7 +21414,7 @@
             <v>0</v>
           </cell>
           <cell r="F2028" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2028" t="b">
             <v>1</v>
@@ -21373,7 +21431,7 @@
             <v>0</v>
           </cell>
           <cell r="F2029" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2029" t="b">
             <v>1</v>
@@ -21407,7 +21465,7 @@
             <v>0</v>
           </cell>
           <cell r="F2031" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2031" t="b">
             <v>1</v>
@@ -21424,7 +21482,7 @@
             <v>0</v>
           </cell>
           <cell r="F2032" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2032" t="b">
             <v>1</v>
@@ -21849,7 +21907,7 @@
             <v>0</v>
           </cell>
           <cell r="F2062" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2062" t="b">
             <v>0</v>
@@ -21866,7 +21924,7 @@
             <v>0</v>
           </cell>
           <cell r="F2063" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2063" t="b">
             <v>0</v>
@@ -21883,7 +21941,7 @@
             <v>0</v>
           </cell>
           <cell r="F2064" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2064" t="b">
             <v>0</v>
@@ -21917,7 +21975,7 @@
             <v>0</v>
           </cell>
           <cell r="F2067" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2067" t="b">
             <v>0</v>
@@ -22274,7 +22332,7 @@
             <v>0</v>
           </cell>
           <cell r="F2166" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2166" t="b">
             <v>0</v>
@@ -22291,7 +22349,7 @@
             <v>0</v>
           </cell>
           <cell r="F2167" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2167" t="b">
             <v>0</v>
@@ -22342,7 +22400,7 @@
             <v>0</v>
           </cell>
           <cell r="F2170" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2170" t="b">
             <v>0</v>
@@ -22376,7 +22434,7 @@
             <v>0</v>
           </cell>
           <cell r="F2173" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2173" t="b">
             <v>0</v>
@@ -22393,7 +22451,7 @@
             <v>0</v>
           </cell>
           <cell r="F2177" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2177" t="b">
             <v>0</v>
@@ -22444,7 +22502,7 @@
             <v>0</v>
           </cell>
           <cell r="F2189" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2189" t="b">
             <v>0</v>
@@ -22461,7 +22519,7 @@
             <v>0</v>
           </cell>
           <cell r="F2190" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2190" t="b">
             <v>0</v>
@@ -22495,7 +22553,7 @@
             <v>0</v>
           </cell>
           <cell r="F2204" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2204" t="b">
             <v>1</v>
@@ -22512,7 +22570,7 @@
             <v>0</v>
           </cell>
           <cell r="F2206" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2206" t="b">
             <v>1</v>
@@ -22529,7 +22587,7 @@
             <v>0</v>
           </cell>
           <cell r="F2209" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2209" t="b">
             <v>1</v>
@@ -22563,7 +22621,7 @@
             <v>0</v>
           </cell>
           <cell r="F2211" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2211" t="b">
             <v>0</v>
@@ -22580,7 +22638,7 @@
             <v>0</v>
           </cell>
           <cell r="F2212" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2212" t="b">
             <v>1</v>
@@ -22597,7 +22655,7 @@
             <v>0</v>
           </cell>
           <cell r="F2213" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2213" t="b">
             <v>1</v>
@@ -22648,13 +22706,13 @@
             <v>0</v>
           </cell>
           <cell r="F2216" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2216" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="H2216" t="b">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="I2216" t="b">
             <v>0</v>
@@ -22665,7 +22723,7 @@
             <v>0</v>
           </cell>
           <cell r="F2230" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2230" t="b">
             <v>1</v>
@@ -22682,7 +22740,7 @@
             <v>0</v>
           </cell>
           <cell r="F2231" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2231" t="b">
             <v>1</v>
@@ -22869,7 +22927,7 @@
             <v>0</v>
           </cell>
           <cell r="F2242" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2242" t="b">
             <v>1</v>
@@ -23056,7 +23114,7 @@
             <v>0</v>
           </cell>
           <cell r="F2253" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2253" t="b">
             <v>1</v>
@@ -23226,7 +23284,7 @@
             <v>0</v>
           </cell>
           <cell r="F2263" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2263" t="b">
             <v>1</v>
@@ -23345,7 +23403,7 @@
             <v>0</v>
           </cell>
           <cell r="F2270" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2270" t="b">
             <v>1</v>
@@ -23362,7 +23420,7 @@
             <v>0</v>
           </cell>
           <cell r="F2271" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2271" t="b">
             <v>1</v>
@@ -23379,7 +23437,7 @@
             <v>0</v>
           </cell>
           <cell r="F2273" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2273" t="b">
             <v>1</v>
@@ -23396,7 +23454,7 @@
             <v>0</v>
           </cell>
           <cell r="F2274" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2274" t="b">
             <v>1</v>
@@ -23413,7 +23471,7 @@
             <v>0</v>
           </cell>
           <cell r="F2275" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2275" t="b">
             <v>1</v>
@@ -23430,7 +23488,7 @@
             <v>0</v>
           </cell>
           <cell r="F2276" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2276" t="b">
             <v>1</v>
@@ -23447,7 +23505,7 @@
             <v>0</v>
           </cell>
           <cell r="F2277" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2277" t="b">
             <v>1</v>
@@ -23464,7 +23522,7 @@
             <v>0</v>
           </cell>
           <cell r="F2278" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2278" t="b">
             <v>1</v>
@@ -23481,7 +23539,7 @@
             <v>0</v>
           </cell>
           <cell r="F2279" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2279" t="b">
             <v>1</v>
@@ -23498,7 +23556,7 @@
             <v>0</v>
           </cell>
           <cell r="F2280" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2280" t="b">
             <v>1</v>
@@ -23515,7 +23573,7 @@
             <v>0</v>
           </cell>
           <cell r="F2281" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2281" t="b">
             <v>1</v>
@@ -23532,7 +23590,7 @@
             <v>0</v>
           </cell>
           <cell r="F2282" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2282" t="b">
             <v>1</v>
@@ -23549,7 +23607,7 @@
             <v>0</v>
           </cell>
           <cell r="F2283" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2283" t="b">
             <v>1</v>
@@ -23566,7 +23624,7 @@
             <v>0</v>
           </cell>
           <cell r="F2284" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2284" t="b">
             <v>1</v>
@@ -23583,7 +23641,7 @@
             <v>0</v>
           </cell>
           <cell r="F2285" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2285" t="b">
             <v>1</v>
@@ -23600,7 +23658,7 @@
             <v>0</v>
           </cell>
           <cell r="F2286" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2286" t="b">
             <v>1</v>
@@ -23617,7 +23675,7 @@
             <v>0</v>
           </cell>
           <cell r="F2287" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2287" t="b">
             <v>1</v>
@@ -23634,7 +23692,7 @@
             <v>0</v>
           </cell>
           <cell r="F2288" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2288" t="b">
             <v>1</v>
@@ -23651,7 +23709,7 @@
             <v>0</v>
           </cell>
           <cell r="F2289" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2289" t="b">
             <v>1</v>
@@ -23668,7 +23726,7 @@
             <v>0</v>
           </cell>
           <cell r="F2290" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2290" t="b">
             <v>1</v>
@@ -23685,7 +23743,7 @@
             <v>0</v>
           </cell>
           <cell r="F2291" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2291" t="b">
             <v>1</v>
@@ -23702,7 +23760,7 @@
             <v>0</v>
           </cell>
           <cell r="F2292" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2292" t="b">
             <v>1</v>
@@ -23719,7 +23777,7 @@
             <v>0</v>
           </cell>
           <cell r="F2293" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2293" t="b">
             <v>1</v>
@@ -23736,7 +23794,7 @@
             <v>0</v>
           </cell>
           <cell r="F2294" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2294" t="b">
             <v>1</v>
@@ -23753,7 +23811,7 @@
             <v>0</v>
           </cell>
           <cell r="F2295" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2295" t="b">
             <v>1</v>
@@ -23770,7 +23828,7 @@
             <v>0</v>
           </cell>
           <cell r="F2296" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2296" t="b">
             <v>1</v>
@@ -23787,7 +23845,7 @@
             <v>0</v>
           </cell>
           <cell r="F2297" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2297" t="b">
             <v>1</v>
@@ -23804,7 +23862,7 @@
             <v>0</v>
           </cell>
           <cell r="F2298" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2298" t="b">
             <v>1</v>
@@ -23821,7 +23879,7 @@
             <v>0</v>
           </cell>
           <cell r="F2299" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2299" t="b">
             <v>1</v>
@@ -23838,7 +23896,7 @@
             <v>0</v>
           </cell>
           <cell r="F2300" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2300" t="b">
             <v>1</v>
@@ -23855,7 +23913,7 @@
             <v>0</v>
           </cell>
           <cell r="F2301" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2301" t="b">
             <v>1</v>
@@ -23872,7 +23930,7 @@
             <v>0</v>
           </cell>
           <cell r="F2302" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2302" t="b">
             <v>1</v>
@@ -23889,7 +23947,7 @@
             <v>0</v>
           </cell>
           <cell r="F2303" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2303" t="b">
             <v>1</v>
@@ -23906,7 +23964,7 @@
             <v>0</v>
           </cell>
           <cell r="F2304" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2304" t="b">
             <v>1</v>
@@ -23923,7 +23981,7 @@
             <v>0</v>
           </cell>
           <cell r="F2305" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2305" t="b">
             <v>1</v>
@@ -23940,7 +23998,7 @@
             <v>0</v>
           </cell>
           <cell r="F2306" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2306" t="b">
             <v>1</v>
@@ -23957,7 +24015,7 @@
             <v>0</v>
           </cell>
           <cell r="F2307" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2307" t="b">
             <v>1</v>
@@ -23974,7 +24032,7 @@
             <v>0</v>
           </cell>
           <cell r="F2308" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2308" t="b">
             <v>1</v>
@@ -23991,7 +24049,7 @@
             <v>0</v>
           </cell>
           <cell r="F2309" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2309" t="b">
             <v>1</v>
@@ -24008,7 +24066,7 @@
             <v>0</v>
           </cell>
           <cell r="F2310" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2310" t="b">
             <v>1</v>
@@ -24025,7 +24083,7 @@
             <v>0</v>
           </cell>
           <cell r="F2311" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2311" t="b">
             <v>1</v>
@@ -24042,7 +24100,7 @@
             <v>0</v>
           </cell>
           <cell r="F2312" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2312" t="b">
             <v>1</v>
@@ -24059,7 +24117,7 @@
             <v>0</v>
           </cell>
           <cell r="F2313" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2313" t="b">
             <v>1</v>
@@ -24076,7 +24134,7 @@
             <v>0</v>
           </cell>
           <cell r="F2314" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2314" t="b">
             <v>1</v>
@@ -24093,7 +24151,7 @@
             <v>0</v>
           </cell>
           <cell r="F2315" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2315" t="b">
             <v>1</v>
@@ -24127,7 +24185,7 @@
             <v>0</v>
           </cell>
           <cell r="F2317" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2317" t="b">
             <v>1</v>
@@ -24433,7 +24491,7 @@
             <v>0</v>
           </cell>
           <cell r="F2335" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2335" t="b">
             <v>1</v>
@@ -24450,7 +24508,7 @@
             <v>0</v>
           </cell>
           <cell r="F2336" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2336" t="b">
             <v>1</v>
@@ -24467,7 +24525,7 @@
             <v>0</v>
           </cell>
           <cell r="F2337" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2337" t="b">
             <v>1</v>
@@ -24484,7 +24542,7 @@
             <v>0</v>
           </cell>
           <cell r="F2338" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2338" t="b">
             <v>1</v>
@@ -24501,7 +24559,7 @@
             <v>0</v>
           </cell>
           <cell r="F2339" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2339" t="b">
             <v>1</v>
@@ -24535,7 +24593,7 @@
             <v>0</v>
           </cell>
           <cell r="F2341" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2341" t="b">
             <v>1</v>
@@ -24552,7 +24610,7 @@
             <v>0</v>
           </cell>
           <cell r="F2342" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2342" t="b">
             <v>1</v>
@@ -24569,7 +24627,7 @@
             <v>0</v>
           </cell>
           <cell r="F2343" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2343" t="b">
             <v>1</v>
@@ -24586,7 +24644,7 @@
             <v>0</v>
           </cell>
           <cell r="F2344" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2344" t="b">
             <v>1</v>
@@ -24620,7 +24678,7 @@
             <v>0</v>
           </cell>
           <cell r="F2346" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2346" t="b">
             <v>1</v>
@@ -24637,7 +24695,7 @@
             <v>0</v>
           </cell>
           <cell r="F2347" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2347" t="b">
             <v>1</v>
@@ -24654,7 +24712,7 @@
             <v>0</v>
           </cell>
           <cell r="F2348" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2348" t="b">
             <v>1</v>
@@ -24671,7 +24729,7 @@
             <v>0</v>
           </cell>
           <cell r="F2349" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2349" t="b">
             <v>1</v>
@@ -24705,7 +24763,7 @@
             <v>0</v>
           </cell>
           <cell r="F2351" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2351" t="b">
             <v>1</v>
@@ -24722,7 +24780,7 @@
             <v>0</v>
           </cell>
           <cell r="F2352" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2352" t="b">
             <v>1</v>
@@ -24739,7 +24797,7 @@
             <v>0</v>
           </cell>
           <cell r="F2353" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2353" t="b">
             <v>1</v>
@@ -24756,7 +24814,7 @@
             <v>0</v>
           </cell>
           <cell r="F2354" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2354" t="b">
             <v>1</v>
@@ -24773,7 +24831,7 @@
             <v>0</v>
           </cell>
           <cell r="F2355" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2355" t="b">
             <v>1</v>
@@ -24807,7 +24865,7 @@
             <v>0</v>
           </cell>
           <cell r="F2357" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2357" t="b">
             <v>1</v>
@@ -24824,7 +24882,7 @@
             <v>0</v>
           </cell>
           <cell r="F2358" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2358" t="b">
             <v>1</v>
@@ -25011,7 +25069,7 @@
             <v>0</v>
           </cell>
           <cell r="F2374" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2374" t="b">
             <v>1</v>
@@ -25368,7 +25426,7 @@
             <v>0</v>
           </cell>
           <cell r="F2409" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2409" t="b">
             <v>1</v>
@@ -25385,7 +25443,7 @@
             <v>0</v>
           </cell>
           <cell r="F2411" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2411" t="b">
             <v>1</v>
@@ -25419,7 +25477,7 @@
             <v>0</v>
           </cell>
           <cell r="F2413" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2413" t="b">
             <v>1</v>
@@ -25453,7 +25511,7 @@
             <v>0</v>
           </cell>
           <cell r="F2415" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2415" t="b">
             <v>1</v>
@@ -25470,7 +25528,7 @@
             <v>0</v>
           </cell>
           <cell r="F2416" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2416" t="b">
             <v>1</v>
@@ -25487,7 +25545,7 @@
             <v>0</v>
           </cell>
           <cell r="F2417" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2417" t="b">
             <v>1</v>
@@ -25538,7 +25596,7 @@
             <v>0</v>
           </cell>
           <cell r="F2420" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2420" t="b">
             <v>1</v>
@@ -25555,7 +25613,7 @@
             <v>0</v>
           </cell>
           <cell r="F2421" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2421" t="b">
             <v>1</v>
@@ -25572,7 +25630,7 @@
             <v>0</v>
           </cell>
           <cell r="F2422" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2422" t="b">
             <v>1</v>
@@ -25589,7 +25647,7 @@
             <v>0</v>
           </cell>
           <cell r="F2423" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2423" t="b">
             <v>1</v>
@@ -25606,7 +25664,7 @@
             <v>0</v>
           </cell>
           <cell r="F2424" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2424" t="b">
             <v>1</v>
@@ -25725,7 +25783,7 @@
             <v>0</v>
           </cell>
           <cell r="F2433" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2433" t="b">
             <v>1</v>
@@ -25759,7 +25817,7 @@
             <v>0</v>
           </cell>
           <cell r="F2435" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2435" t="b">
             <v>1</v>
@@ -25844,7 +25902,7 @@
             <v>0</v>
           </cell>
           <cell r="F2440" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2440" t="b">
             <v>1</v>
@@ -25878,7 +25936,7 @@
             <v>0</v>
           </cell>
           <cell r="F2442" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2442" t="b">
             <v>1</v>
@@ -25895,7 +25953,7 @@
             <v>0</v>
           </cell>
           <cell r="F2444" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2444" t="b">
             <v>1</v>
@@ -25912,7 +25970,7 @@
             <v>0</v>
           </cell>
           <cell r="F2445" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2445" t="b">
             <v>1</v>
@@ -25929,7 +25987,7 @@
             <v>0</v>
           </cell>
           <cell r="F2446" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2446" t="b">
             <v>1</v>
@@ -25946,7 +26004,7 @@
             <v>0</v>
           </cell>
           <cell r="F2447" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2447" t="b">
             <v>1</v>
@@ -25963,7 +26021,7 @@
             <v>0</v>
           </cell>
           <cell r="F2448" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2448" t="b">
             <v>1</v>
@@ -25980,7 +26038,7 @@
             <v>0</v>
           </cell>
           <cell r="F2449" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2449" t="b">
             <v>1</v>
@@ -26014,7 +26072,7 @@
             <v>0</v>
           </cell>
           <cell r="F2451" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2451" t="b">
             <v>1</v>
@@ -26031,7 +26089,7 @@
             <v>0</v>
           </cell>
           <cell r="F2452" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2452" t="b">
             <v>1</v>
@@ -26048,7 +26106,7 @@
             <v>0</v>
           </cell>
           <cell r="F2454" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2454" t="b">
             <v>1</v>
@@ -26065,7 +26123,7 @@
             <v>0</v>
           </cell>
           <cell r="F2455" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2455" t="b">
             <v>1</v>
@@ -26099,7 +26157,7 @@
             <v>0</v>
           </cell>
           <cell r="F2457" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2457" t="b">
             <v>1</v>
@@ -26116,7 +26174,7 @@
             <v>0</v>
           </cell>
           <cell r="F2458" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2458" t="b">
             <v>1</v>
@@ -26150,7 +26208,7 @@
             <v>0</v>
           </cell>
           <cell r="F2461" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2461" t="b">
             <v>1</v>
@@ -26320,7 +26378,7 @@
             <v>0</v>
           </cell>
           <cell r="F2523" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2523" t="b">
             <v>1</v>
@@ -26711,7 +26769,7 @@
             <v>0</v>
           </cell>
           <cell r="F2579" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2579" t="b">
             <v>1</v>
@@ -26728,7 +26786,7 @@
             <v>0</v>
           </cell>
           <cell r="F2581" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2581" t="b">
             <v>1</v>
@@ -26745,7 +26803,7 @@
             <v>0</v>
           </cell>
           <cell r="F2582" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2582" t="b">
             <v>1</v>
@@ -26915,7 +26973,7 @@
             <v>0</v>
           </cell>
           <cell r="F2593" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2593" t="b">
             <v>1</v>
@@ -26932,7 +26990,7 @@
             <v>0</v>
           </cell>
           <cell r="F2594" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2594" t="b">
             <v>0</v>
@@ -27391,7 +27449,7 @@
             <v>0</v>
           </cell>
           <cell r="F2630" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2630" t="b">
             <v>1</v>
@@ -27476,7 +27534,7 @@
             <v>0</v>
           </cell>
           <cell r="F2637" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2637" t="b">
             <v>0</v>
@@ -27578,7 +27636,7 @@
             <v>0</v>
           </cell>
           <cell r="F2682" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2682" t="b">
             <v>0</v>
@@ -27595,7 +27653,7 @@
             <v>0</v>
           </cell>
           <cell r="F2684" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2684" t="b">
             <v>0</v>
@@ -27612,7 +27670,7 @@
             <v>0</v>
           </cell>
           <cell r="F2685" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2685" t="b">
             <v>0</v>
@@ -27629,7 +27687,7 @@
             <v>0</v>
           </cell>
           <cell r="F2686" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2686" t="b">
             <v>0</v>
@@ -27646,7 +27704,7 @@
             <v>0</v>
           </cell>
           <cell r="F2687" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2687" t="b">
             <v>0</v>
@@ -27663,7 +27721,7 @@
             <v>0</v>
           </cell>
           <cell r="F2688" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2688" t="b">
             <v>0</v>
@@ -27680,7 +27738,7 @@
             <v>0</v>
           </cell>
           <cell r="F2690" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2690" t="b">
             <v>0</v>
@@ -27697,7 +27755,7 @@
             <v>0</v>
           </cell>
           <cell r="F2693" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2693" t="b">
             <v>0</v>
@@ -27714,7 +27772,7 @@
             <v>0</v>
           </cell>
           <cell r="F2699" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2699" t="b">
             <v>0</v>
@@ -27731,7 +27789,7 @@
             <v>0</v>
           </cell>
           <cell r="F2700" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2700" t="b">
             <v>0</v>
@@ -27748,7 +27806,7 @@
             <v>0</v>
           </cell>
           <cell r="F2701" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2701" t="b">
             <v>0</v>
@@ -27765,7 +27823,7 @@
             <v>0</v>
           </cell>
           <cell r="F2702" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2702" t="b">
             <v>0</v>
@@ -27782,7 +27840,7 @@
             <v>0</v>
           </cell>
           <cell r="F2704" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2704" t="b">
             <v>0</v>
@@ -27799,7 +27857,7 @@
             <v>0</v>
           </cell>
           <cell r="F2705" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2705" t="b">
             <v>0</v>
@@ -27816,7 +27874,7 @@
             <v>0</v>
           </cell>
           <cell r="F2706" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2706" t="b">
             <v>0</v>
@@ -27833,7 +27891,7 @@
             <v>0</v>
           </cell>
           <cell r="F2709" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2709" t="b">
             <v>0</v>
@@ -27850,7 +27908,7 @@
             <v>0</v>
           </cell>
           <cell r="F2715" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2715" t="b">
             <v>0</v>
@@ -27867,7 +27925,7 @@
             <v>0</v>
           </cell>
           <cell r="F2717" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2717" t="b">
             <v>0</v>
@@ -27884,7 +27942,7 @@
             <v>0</v>
           </cell>
           <cell r="F2720" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2720" t="b">
             <v>0</v>
@@ -27901,7 +27959,7 @@
             <v>0</v>
           </cell>
           <cell r="F2721" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2721" t="b">
             <v>0</v>
@@ -28717,7 +28775,7 @@
             <v>0</v>
           </cell>
           <cell r="F2781" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2781" t="b">
             <v>1</v>
@@ -28734,7 +28792,7 @@
             <v>0</v>
           </cell>
           <cell r="F2782" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2782" t="b">
             <v>1</v>
@@ -28768,7 +28826,7 @@
             <v>0</v>
           </cell>
           <cell r="F2784" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2784" t="b">
             <v>1</v>
@@ -28785,7 +28843,7 @@
             <v>0</v>
           </cell>
           <cell r="F2785" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2785" t="b">
             <v>1</v>
@@ -28802,7 +28860,7 @@
             <v>0</v>
           </cell>
           <cell r="F2786" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2786" t="b">
             <v>1</v>
@@ -28870,7 +28928,7 @@
             <v>0</v>
           </cell>
           <cell r="F2790" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2790" t="b">
             <v>1</v>
@@ -28972,7 +29030,7 @@
             <v>0</v>
           </cell>
           <cell r="F2796" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2796" t="b">
             <v>1</v>
@@ -28989,7 +29047,7 @@
             <v>0</v>
           </cell>
           <cell r="F2797" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2797" t="b">
             <v>1</v>
@@ -29023,7 +29081,7 @@
             <v>0</v>
           </cell>
           <cell r="F2799" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2799" t="b">
             <v>1</v>
@@ -29040,7 +29098,7 @@
             <v>0</v>
           </cell>
           <cell r="F2800" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2800" t="b">
             <v>1</v>
@@ -29091,7 +29149,7 @@
             <v>0</v>
           </cell>
           <cell r="F2803" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2803" t="b">
             <v>1</v>
@@ -29108,7 +29166,7 @@
             <v>0</v>
           </cell>
           <cell r="F2804" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2804" t="b">
             <v>1</v>
@@ -29142,7 +29200,7 @@
             <v>0</v>
           </cell>
           <cell r="F2806" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2806" t="b">
             <v>1</v>
@@ -29210,7 +29268,7 @@
             <v>0</v>
           </cell>
           <cell r="F2810" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2810" t="b">
             <v>1</v>
@@ -29244,7 +29302,7 @@
             <v>0</v>
           </cell>
           <cell r="F2812" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2812" t="b">
             <v>1</v>
@@ -29278,7 +29336,7 @@
             <v>0</v>
           </cell>
           <cell r="F2814" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2814" t="b">
             <v>1</v>
@@ -29312,7 +29370,7 @@
             <v>0</v>
           </cell>
           <cell r="F2820" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2820" t="b">
             <v>1</v>
@@ -29329,7 +29387,7 @@
             <v>0</v>
           </cell>
           <cell r="F2821" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2821" t="b">
             <v>1</v>
@@ -29346,7 +29404,7 @@
             <v>0</v>
           </cell>
           <cell r="F2822" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2822" t="b">
             <v>1</v>
@@ -29363,7 +29421,7 @@
             <v>0</v>
           </cell>
           <cell r="F2828" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2828" t="b">
             <v>1</v>
@@ -29380,7 +29438,7 @@
             <v>0</v>
           </cell>
           <cell r="F2832" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2832" t="b">
             <v>1</v>
@@ -29397,7 +29455,7 @@
             <v>0</v>
           </cell>
           <cell r="F2833" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2833" t="b">
             <v>1</v>
@@ -29414,7 +29472,7 @@
             <v>0</v>
           </cell>
           <cell r="F2837" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2837" t="b">
             <v>1</v>
@@ -29431,7 +29489,7 @@
             <v>0</v>
           </cell>
           <cell r="F2839" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2839" t="b">
             <v>1</v>
@@ -29448,7 +29506,7 @@
             <v>0</v>
           </cell>
           <cell r="F2840" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2840" t="b">
             <v>1</v>
@@ -29465,7 +29523,7 @@
             <v>0</v>
           </cell>
           <cell r="F2857" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2857" t="b">
             <v>1</v>
@@ -29482,7 +29540,7 @@
             <v>0</v>
           </cell>
           <cell r="F2869" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2869" t="b">
             <v>1</v>
@@ -29499,7 +29557,7 @@
             <v>0</v>
           </cell>
           <cell r="F2883" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2883" t="b">
             <v>1</v>
@@ -29516,7 +29574,7 @@
             <v>0</v>
           </cell>
           <cell r="F2894" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2894" t="b">
             <v>1</v>
@@ -29533,7 +29591,7 @@
             <v>0</v>
           </cell>
           <cell r="F2897" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2897" t="b">
             <v>1</v>
@@ -29550,7 +29608,7 @@
             <v>0</v>
           </cell>
           <cell r="F2901" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2901" t="b">
             <v>1</v>
@@ -29567,7 +29625,7 @@
             <v>0</v>
           </cell>
           <cell r="F2903" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2903" t="b">
             <v>1</v>
@@ -29584,7 +29642,7 @@
             <v>0</v>
           </cell>
           <cell r="F2905" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2905" t="b">
             <v>1</v>
@@ -29601,7 +29659,7 @@
             <v>0</v>
           </cell>
           <cell r="F2908" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2908" t="b">
             <v>1</v>
@@ -29618,7 +29676,7 @@
             <v>0</v>
           </cell>
           <cell r="F2927" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2927" t="b">
             <v>1</v>
@@ -29635,7 +29693,7 @@
             <v>0</v>
           </cell>
           <cell r="F2944" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2944" t="b">
             <v>1</v>
@@ -29652,7 +29710,7 @@
             <v>0</v>
           </cell>
           <cell r="F2952" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2952" t="b">
             <v>1</v>
@@ -29771,7 +29829,7 @@
             <v>0</v>
           </cell>
           <cell r="F2977" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G2977" t="b">
             <v>1</v>
@@ -29941,7 +29999,7 @@
             <v>0</v>
           </cell>
           <cell r="F3032" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3032" t="b">
             <v>1</v>
@@ -29958,7 +30016,7 @@
             <v>0</v>
           </cell>
           <cell r="F3047" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3047" t="b">
             <v>1</v>
@@ -29975,7 +30033,7 @@
             <v>0</v>
           </cell>
           <cell r="F3059" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3059" t="b">
             <v>1</v>
@@ -29992,7 +30050,7 @@
             <v>0</v>
           </cell>
           <cell r="F3073" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3073" t="b">
             <v>1</v>
@@ -30009,7 +30067,7 @@
             <v>0</v>
           </cell>
           <cell r="F3100" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3100" t="b">
             <v>1</v>
@@ -30026,7 +30084,7 @@
             <v>0</v>
           </cell>
           <cell r="F3108" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3108" t="b">
             <v>1</v>
@@ -30043,7 +30101,7 @@
             <v>0</v>
           </cell>
           <cell r="F3112" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3112" t="b">
             <v>1</v>
@@ -30060,7 +30118,7 @@
             <v>0</v>
           </cell>
           <cell r="F3124" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3124" t="b">
             <v>1</v>
@@ -30077,7 +30135,7 @@
             <v>0</v>
           </cell>
           <cell r="F3138" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3138" t="b">
             <v>1</v>
@@ -30094,7 +30152,7 @@
             <v>0</v>
           </cell>
           <cell r="F3155" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3155" t="b">
             <v>1</v>
@@ -30111,7 +30169,7 @@
             <v>0</v>
           </cell>
           <cell r="F3162" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3162" t="b">
             <v>1</v>
@@ -30366,7 +30424,7 @@
             <v>0</v>
           </cell>
           <cell r="F3231" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3231" t="b">
             <v>1</v>
@@ -30485,7 +30543,7 @@
             <v>0</v>
           </cell>
           <cell r="F3238" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3238" t="b">
             <v>0</v>
@@ -30876,7 +30934,7 @@
             <v>0</v>
           </cell>
           <cell r="F3261" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3261" t="b">
             <v>1</v>
@@ -31284,7 +31342,7 @@
             <v>0</v>
           </cell>
           <cell r="F3328" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3328" t="b">
             <v>1</v>
@@ -31369,7 +31427,7 @@
             <v>0</v>
           </cell>
           <cell r="F3333" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3333" t="b">
             <v>1</v>
@@ -31386,7 +31444,7 @@
             <v>0</v>
           </cell>
           <cell r="F3334" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3334" t="b">
             <v>1</v>
@@ -31403,7 +31461,7 @@
             <v>0</v>
           </cell>
           <cell r="F3335" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3335" t="b">
             <v>1</v>
@@ -31420,7 +31478,7 @@
             <v>0</v>
           </cell>
           <cell r="F3336" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3336" t="b">
             <v>1</v>
@@ -31437,7 +31495,7 @@
             <v>0</v>
           </cell>
           <cell r="F3337" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3337" t="b">
             <v>0</v>
@@ -31488,7 +31546,7 @@
             <v>0</v>
           </cell>
           <cell r="F3340" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3340" t="b">
             <v>1</v>
@@ -31522,7 +31580,7 @@
             <v>0</v>
           </cell>
           <cell r="F3342" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3342" t="b">
             <v>1</v>
@@ -31539,7 +31597,7 @@
             <v>0</v>
           </cell>
           <cell r="F3343" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3343" t="b">
             <v>1</v>
@@ -31556,7 +31614,7 @@
             <v>0</v>
           </cell>
           <cell r="F3344" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3344" t="b">
             <v>1</v>
@@ -31590,7 +31648,7 @@
             <v>0</v>
           </cell>
           <cell r="F3346" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3346" t="b">
             <v>1</v>
@@ -31675,7 +31733,7 @@
             <v>0</v>
           </cell>
           <cell r="F3351" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3351" t="b">
             <v>1</v>
@@ -31692,7 +31750,7 @@
             <v>0</v>
           </cell>
           <cell r="F3352" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3352" t="b">
             <v>1</v>
@@ -31726,7 +31784,7 @@
             <v>0</v>
           </cell>
           <cell r="F3354" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3354" t="b">
             <v>0</v>
@@ -31760,7 +31818,7 @@
             <v>0</v>
           </cell>
           <cell r="F3356" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3356" t="b">
             <v>1</v>
@@ -31777,7 +31835,7 @@
             <v>0</v>
           </cell>
           <cell r="F3357" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3357" t="b">
             <v>1</v>
@@ -31828,7 +31886,7 @@
             <v>0</v>
           </cell>
           <cell r="F3360" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3360" t="b">
             <v>1</v>
@@ -31879,7 +31937,7 @@
             <v>0</v>
           </cell>
           <cell r="F3363" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3363" t="b">
             <v>0</v>
@@ -31896,7 +31954,7 @@
             <v>0</v>
           </cell>
           <cell r="F3364" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3364" t="b">
             <v>1</v>
@@ -31913,7 +31971,7 @@
             <v>0</v>
           </cell>
           <cell r="F3365" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3365" t="b">
             <v>1</v>
@@ -31930,7 +31988,7 @@
             <v>0</v>
           </cell>
           <cell r="F3366" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3366" t="b">
             <v>1</v>
@@ -31964,7 +32022,7 @@
             <v>0</v>
           </cell>
           <cell r="F3368" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3368" t="b">
             <v>1</v>
@@ -31981,7 +32039,7 @@
             <v>0</v>
           </cell>
           <cell r="F3369" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3369" t="b">
             <v>1</v>
@@ -31998,7 +32056,7 @@
             <v>0</v>
           </cell>
           <cell r="F3370" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3370" t="b">
             <v>0</v>
@@ -32015,7 +32073,7 @@
             <v>0</v>
           </cell>
           <cell r="F3371" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3371" t="b">
             <v>1</v>
@@ -32032,7 +32090,7 @@
             <v>0</v>
           </cell>
           <cell r="F3372" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3372" t="b">
             <v>1</v>
@@ -32066,7 +32124,7 @@
             <v>0</v>
           </cell>
           <cell r="F3374" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3374" t="b">
             <v>0</v>
@@ -32083,7 +32141,7 @@
             <v>0</v>
           </cell>
           <cell r="F3375" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3375" t="b">
             <v>1</v>
@@ -32100,7 +32158,7 @@
             <v>0</v>
           </cell>
           <cell r="F3376" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3376" t="b">
             <v>1</v>
@@ -32134,7 +32192,7 @@
             <v>0</v>
           </cell>
           <cell r="F3378" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3378" t="b">
             <v>1</v>
@@ -32168,7 +32226,7 @@
             <v>0</v>
           </cell>
           <cell r="F3380" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3380" t="b">
             <v>1</v>
@@ -32236,7 +32294,7 @@
             <v>0</v>
           </cell>
           <cell r="F3384" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3384" t="b">
             <v>1</v>
@@ -32270,7 +32328,7 @@
             <v>0</v>
           </cell>
           <cell r="F3386" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3386" t="b">
             <v>1</v>
@@ -32287,7 +32345,7 @@
             <v>0</v>
           </cell>
           <cell r="F3400" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3400" t="b">
             <v>1</v>
@@ -32304,7 +32362,7 @@
             <v>0</v>
           </cell>
           <cell r="F3412" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3412" t="b">
             <v>1</v>
@@ -32321,7 +32379,7 @@
             <v>0</v>
           </cell>
           <cell r="F3418" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3418" t="b">
             <v>1</v>
@@ -32338,7 +32396,7 @@
             <v>0</v>
           </cell>
           <cell r="F3424" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3424" t="b">
             <v>1</v>
@@ -32355,7 +32413,7 @@
             <v>0</v>
           </cell>
           <cell r="F3428" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3428" t="b">
             <v>1</v>
@@ -32372,7 +32430,7 @@
             <v>0</v>
           </cell>
           <cell r="F3441" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3441" t="b">
             <v>1</v>
@@ -32389,7 +32447,7 @@
             <v>0</v>
           </cell>
           <cell r="F3442" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3442" t="b">
             <v>1</v>
@@ -32406,7 +32464,7 @@
             <v>0</v>
           </cell>
           <cell r="F3443" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3443" t="b">
             <v>1</v>
@@ -32423,7 +32481,7 @@
             <v>0</v>
           </cell>
           <cell r="F3444" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3444" t="b">
             <v>1</v>
@@ -32440,7 +32498,7 @@
             <v>0</v>
           </cell>
           <cell r="F3447" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3447" t="b">
             <v>1</v>
@@ -32491,7 +32549,7 @@
             <v>0</v>
           </cell>
           <cell r="F3456" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3456" t="b">
             <v>1</v>
@@ -32610,7 +32668,7 @@
             <v>0</v>
           </cell>
           <cell r="F3463" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3463" t="b">
             <v>1</v>
@@ -32644,7 +32702,7 @@
             <v>0</v>
           </cell>
           <cell r="F3465" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3465" t="b">
             <v>1</v>
@@ -32746,7 +32804,7 @@
             <v>0</v>
           </cell>
           <cell r="F3471" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3471" t="b">
             <v>1</v>
@@ -32814,7 +32872,7 @@
             <v>0</v>
           </cell>
           <cell r="F3475" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3475" t="b">
             <v>1</v>
@@ -32933,7 +32991,7 @@
             <v>0</v>
           </cell>
           <cell r="F3482" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3482" t="b">
             <v>1</v>
@@ -33052,7 +33110,7 @@
             <v>0</v>
           </cell>
           <cell r="F3489" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3489" t="b">
             <v>1</v>
@@ -33069,7 +33127,7 @@
             <v>0</v>
           </cell>
           <cell r="F3490" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3490" t="b">
             <v>1</v>
@@ -33188,7 +33246,7 @@
             <v>0</v>
           </cell>
           <cell r="F3497" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3497" t="b">
             <v>1</v>
@@ -33307,7 +33365,7 @@
             <v>0</v>
           </cell>
           <cell r="F3504" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3504" t="b">
             <v>1</v>
@@ -33341,7 +33399,7 @@
             <v>0</v>
           </cell>
           <cell r="F3506" t="b">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="G3506" t="b">
             <v>1</v>
@@ -35733,15 +35791,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56661184-6810-8D4F-B21F-09ABE68B533C}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="S12" sqref="D12:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" t="str" cm="1">
         <f t="array" ref="B1:H1">[1]trip_attributes!$E$1:$K$1</f>
         <v>cctv</v>
@@ -35765,7 +35823,7 @@
         <v>Year</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="b">
         <v>1</v>
       </c>
@@ -35775,15 +35833,15 @@
       </c>
       <c r="C2">
         <f>COUNTIF([1]trip_attributes!$F:$F, TRUE)</f>
-        <v>2074</v>
+        <v>1604</v>
       </c>
       <c r="D2">
         <f>COUNTIF([1]trip_attributes!$G:$G, TRUE)</f>
-        <v>2019</v>
+        <v>2029</v>
       </c>
       <c r="E2">
         <f>COUNTIF([1]trip_attributes!$H:$H, TRUE)</f>
-        <v>1815</v>
+        <v>1825</v>
       </c>
       <c r="F2">
         <f>COUNTIF([1]trip_attributes!$I:$I, TRUE)</f>
@@ -35794,7 +35852,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -35804,15 +35862,15 @@
       </c>
       <c r="C3">
         <f>COUNTIF([1]trip_attributes!$F:$F, FALSE)</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="D3">
         <f>COUNTIF([1]trip_attributes!$G:$G, FALSE)</f>
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <f>COUNTIF([1]trip_attributes!$H:$H, FALSE)</f>
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F3">
         <f>COUNTIF([1]trip_attributes!$I:$I, FALSE)</f>
@@ -35823,7 +35881,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -35833,11 +35891,11 @@
       </c>
       <c r="C4">
         <f>ROUND(C2/SUM(C2:C3),2)</f>
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="C4:G4" si="0">ROUND(D2/SUM(D2:D3),2)</f>
-        <v>0.97</v>
+        <f t="shared" ref="D4:G4" si="0">ROUND(D2/SUM(D2:D3),2)</f>
+        <v>0.98</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
@@ -35852,6 +35910,154 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" t="s">
+        <v>14</v>
+      </c>
+      <c r="S12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.30486111111111114</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>40378</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>0.7</v>
+      </c>
+      <c r="O13">
+        <v>0.7</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0.6</v>
+      </c>
+      <c r="S13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.30763888888888891</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="I14">
+        <v>48</v>
+      </c>
+      <c r="J14">
+        <v>43029</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.4</v>
+      </c>
+      <c r="P14">
+        <v>0.4</v>
+      </c>
+      <c r="Q14">
+        <v>0.4</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
